--- a/demo/secrets_demo.xlsx
+++ b/demo/secrets_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CollectionA" sheetId="1" state="visible" r:id="rId2"/>
@@ -144,8 +144,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,137 +172,137 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1002</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1003</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>1005</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1006</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>1011</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1012</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1013</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1014</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>1015</v>
       </c>
     </row>
@@ -320,140 +324,140 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1002</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1003</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>1005</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1006</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>1011</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1012</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1013</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1014</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>1015</v>
       </c>
     </row>
@@ -462,8 +466,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>